--- a/mosqito/tests/roughness/data/Test_fc_500.xlsx
+++ b/mosqito/tests/roughness/data/Test_fc_500.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQITo_oo\mosqito\tests\roughness\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\Documents\Salomé\MoSQIToGUI\mosqito\tests\roughness\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BA712FE-1EBB-4E62-9AC3-9DE9A751530B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2F73DB-E9EF-4B4F-B8DC-19B0F9C3279E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{14733327-C0B6-4B0F-8424-E6291C787FF5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t xml:space="preserve">Roughness calculation according to Daniel and Weber method </t>
   </si>
@@ -51,118 +51,130 @@
     <t>E. Zwicker, H. Fast!: Psychoacoustics. Springer, Berlin, Heidelberg, 1990</t>
   </si>
   <si>
-    <t>11.406611</t>
-  </si>
-  <si>
-    <t>28.760977</t>
-  </si>
-  <si>
-    <t>31.570282</t>
-  </si>
-  <si>
-    <t>34.559574</t>
-  </si>
-  <si>
-    <t>38.776993</t>
-  </si>
-  <si>
-    <t>43.620438</t>
-  </si>
-  <si>
-    <t>46.578403</t>
-  </si>
-  <si>
-    <t>50.421204</t>
-  </si>
-  <si>
-    <t>52.960423</t>
-  </si>
-  <si>
-    <t>56.085915</t>
-  </si>
-  <si>
-    <t>58.7442</t>
-  </si>
-  <si>
-    <t>63.22831</t>
-  </si>
-  <si>
-    <t>66.9504</t>
-  </si>
-  <si>
-    <t>68.98131</t>
-  </si>
-  <si>
-    <t>72.83363</t>
-  </si>
-  <si>
-    <t>76.270935</t>
-  </si>
-  <si>
-    <t>80.30402</t>
-  </si>
-  <si>
-    <t>83.863846</t>
-  </si>
-  <si>
-    <t>228.00125</t>
-  </si>
-  <si>
-    <t>0.10264928</t>
-  </si>
-  <si>
-    <t>0.40289837</t>
-  </si>
-  <si>
-    <t>0.44973525</t>
-  </si>
-  <si>
-    <t>0.5020224</t>
-  </si>
-  <si>
-    <t>0.5775975</t>
-  </si>
-  <si>
-    <t>0.6358489</t>
-  </si>
-  <si>
-    <t>0.6570783</t>
-  </si>
-  <si>
-    <t>0.68273604</t>
-  </si>
-  <si>
-    <t>0.6863788</t>
-  </si>
-  <si>
-    <t>0.693836</t>
-  </si>
-  <si>
-    <t>0.6804404</t>
-  </si>
-  <si>
-    <t>0.6617317</t>
-  </si>
-  <si>
-    <t>0.6453573</t>
-  </si>
-  <si>
-    <t>0.6242688</t>
-  </si>
-  <si>
-    <t>0.5890037</t>
-  </si>
-  <si>
-    <t>0.54965013</t>
-  </si>
-  <si>
-    <t>0.50728613</t>
-  </si>
-  <si>
-    <t>0.4720935</t>
-  </si>
-  <si>
-    <t>0.08595745</t>
+    <t>11.409495</t>
+  </si>
+  <si>
+    <t>30.487507</t>
+  </si>
+  <si>
+    <t>33.946957</t>
+  </si>
+  <si>
+    <t>36.913254</t>
+  </si>
+  <si>
+    <t>39.927513</t>
+  </si>
+  <si>
+    <t>42.292023</t>
+  </si>
+  <si>
+    <t>46.705784</t>
+  </si>
+  <si>
+    <t>50.772938</t>
+  </si>
+  <si>
+    <t>52.936295</t>
+  </si>
+  <si>
+    <t>56.059425</t>
+  </si>
+  <si>
+    <t>59.361572</t>
+  </si>
+  <si>
+    <t>63.18659</t>
+  </si>
+  <si>
+    <t>66.90265</t>
+  </si>
+  <si>
+    <t>71.01811</t>
+  </si>
+  <si>
+    <t>74.79408</t>
+  </si>
+  <si>
+    <t>78.56848</t>
+  </si>
+  <si>
+    <t>83.38223</t>
+  </si>
+  <si>
+    <t>94.163795</t>
+  </si>
+  <si>
+    <t>113.73634</t>
+  </si>
+  <si>
+    <t>149.61226</t>
+  </si>
+  <si>
+    <t>228.0776</t>
+  </si>
+  <si>
+    <t>0.10152269</t>
+  </si>
+  <si>
+    <t>0.4159882</t>
+  </si>
+  <si>
+    <t>0.48784226</t>
+  </si>
+  <si>
+    <t>0.53730124</t>
+  </si>
+  <si>
+    <t>0.58255917</t>
+  </si>
+  <si>
+    <t>0.61374336</t>
+  </si>
+  <si>
+    <t>0.65500504</t>
+  </si>
+  <si>
+    <t>0.67568153</t>
+  </si>
+  <si>
+    <t>0.6826773</t>
+  </si>
+  <si>
+    <t>0.68430084</t>
+  </si>
+  <si>
+    <t>0.6717034</t>
+  </si>
+  <si>
+    <t>0.6593232</t>
+  </si>
+  <si>
+    <t>0.6337642</t>
+  </si>
+  <si>
+    <t>0.6012624</t>
+  </si>
+  <si>
+    <t>0.56008166</t>
+  </si>
+  <si>
+    <t>0.5258434</t>
+  </si>
+  <si>
+    <t>0.47217426</t>
+  </si>
+  <si>
+    <t>0.38673645</t>
+  </si>
+  <si>
+    <t>0.2821931</t>
+  </si>
+  <si>
+    <t>0.1763591</t>
+  </si>
+  <si>
+    <t>0.08655889</t>
   </si>
 </sst>
 </file>
@@ -520,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6BB36C-BA45-4D31-83ED-4E3D1F01DB82}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B21"/>
+      <selection activeCell="B3" sqref="B3:B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -552,7 +564,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -560,7 +572,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -568,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -576,7 +588,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -584,7 +596,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -592,7 +604,7 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -600,7 +612,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -608,7 +620,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -616,7 +628,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -624,7 +636,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -632,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -640,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -648,7 +660,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -656,7 +668,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -664,7 +676,7 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -672,7 +684,7 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -680,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -688,7 +700,7 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -696,7 +708,23 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
